--- a/Data/EC/NIT-8060065374.xlsx
+++ b/Data/EC/NIT-8060065374.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E83C400-D101-46B3-92A0-B9848223B248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BDB9500-84E8-43D4-8D79-C15014320CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{36CBB465-1861-4DE5-A80C-7C436AE47721}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CA58EAFD-5615-4EC3-88D3-E7DD9CB30703}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,178 +65,178 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1128056893</t>
+  </si>
+  <si>
+    <t>MARGARET DEL CARMEN SANJUANELO HERRERA</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>30843678</t>
+  </si>
+  <si>
+    <t>JOHANA DEL CARMEN TA FUENTES PAZ</t>
+  </si>
+  <si>
+    <t>1140816009</t>
+  </si>
+  <si>
+    <t>KAREN MARGARITA PALACIO VARGAS</t>
+  </si>
+  <si>
+    <t>73267840</t>
+  </si>
+  <si>
+    <t>ALBERTO CUBAS SENIOR</t>
+  </si>
+  <si>
+    <t>1129532949</t>
+  </si>
+  <si>
+    <t>JULIANE CAROLINE OSPINO QUIROZ</t>
+  </si>
+  <si>
     <t>72429926</t>
   </si>
   <si>
     <t>JAIRO ESCOBAR ROMERO</t>
   </si>
   <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>30843678</t>
-  </si>
-  <si>
-    <t>JOHANA DEL CARMEN TA FUENTES PAZ</t>
-  </si>
-  <si>
-    <t>1140816009</t>
-  </si>
-  <si>
-    <t>KAREN MARGARITA PALACIO VARGAS</t>
-  </si>
-  <si>
-    <t>1128056893</t>
-  </si>
-  <si>
-    <t>MARGARET DEL CARMEN SANJUANELO HERRERA</t>
-  </si>
-  <si>
-    <t>1129532949</t>
-  </si>
-  <si>
-    <t>JULIANE CAROLINE OSPINO QUIROZ</t>
-  </si>
-  <si>
-    <t>73267840</t>
-  </si>
-  <si>
-    <t>ALBERTO CUBAS SENIOR</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
     <t>1051361160</t>
   </si>
   <si>
     <t>VANESA DINOSKA PERTUZ ZAPATA</t>
   </si>
   <si>
+    <t>2208</t>
+  </si>
+  <si>
     <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -650,7 +650,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BFCE797-7911-2B16-1AB3-C8C3475AE746}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A3AE2D9-D86B-B0C1-974D-394F5391C09E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1001,7 +1001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0CC9A0-1617-434D-84CF-B0480D21BD8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5D3140-597C-4121-A088-9A7D216C6386}">
   <dimension ref="B2:J275"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1179,10 +1179,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>72791</v>
+        <v>64260</v>
       </c>
       <c r="G16" s="18">
-        <v>1819763</v>
+        <v>1606504</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1193,19 +1193,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>61789</v>
+        <v>64260</v>
       </c>
       <c r="G17" s="18">
-        <v>1544715</v>
+        <v>1606504</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1216,19 +1216,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>72791</v>
+        <v>64260</v>
       </c>
       <c r="G18" s="18">
-        <v>1819763</v>
+        <v>1606504</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1239,13 +1239,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>64260</v>
@@ -1262,19 +1262,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>72791</v>
+        <v>64260</v>
       </c>
       <c r="G20" s="18">
-        <v>1819763</v>
+        <v>1606504</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1285,19 +1285,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>68603</v>
+        <v>64260</v>
       </c>
       <c r="G21" s="18">
-        <v>1715070</v>
+        <v>1606504</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1308,19 +1308,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>61789</v>
+        <v>64260</v>
       </c>
       <c r="G22" s="18">
-        <v>1544715</v>
+        <v>1606504</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1331,19 +1331,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>72791</v>
+        <v>64260</v>
       </c>
       <c r="G23" s="18">
-        <v>1819763</v>
+        <v>1606504</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1354,13 +1354,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>64260</v>
@@ -1377,19 +1377,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F25" s="18">
-        <v>68603</v>
+        <v>64260</v>
       </c>
       <c r="G25" s="18">
-        <v>1715070</v>
+        <v>1606504</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1406,13 +1406,13 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>72791</v>
+        <v>64260</v>
       </c>
       <c r="G26" s="18">
-        <v>1819763</v>
+        <v>1606504</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1423,19 +1423,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>72791</v>
+        <v>64260</v>
       </c>
       <c r="G27" s="18">
-        <v>1819763</v>
+        <v>1606504</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1446,19 +1446,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>72791</v>
+        <v>64260</v>
       </c>
       <c r="G28" s="18">
-        <v>1819763</v>
+        <v>1606504</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1469,19 +1469,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>72791</v>
+        <v>64260</v>
       </c>
       <c r="G29" s="18">
-        <v>1819763</v>
+        <v>1606504</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1492,19 +1492,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>61789</v>
+        <v>64260</v>
       </c>
       <c r="G30" s="18">
-        <v>1544715</v>
+        <v>1606504</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1521,13 +1521,13 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>72791</v>
+        <v>64260</v>
       </c>
       <c r="G31" s="18">
-        <v>1819763</v>
+        <v>1606504</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1538,13 +1538,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>64260</v>
@@ -1561,19 +1561,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>68603</v>
+        <v>64260</v>
       </c>
       <c r="G33" s="18">
-        <v>1715070</v>
+        <v>1606504</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1584,19 +1584,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>68603</v>
+        <v>64260</v>
       </c>
       <c r="G34" s="18">
-        <v>1715070</v>
+        <v>1606504</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1607,19 +1607,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>72791</v>
+        <v>64260</v>
       </c>
       <c r="G35" s="18">
-        <v>1819763</v>
+        <v>1606504</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1630,19 +1630,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>72791</v>
+        <v>64260</v>
       </c>
       <c r="G36" s="18">
-        <v>1819763</v>
+        <v>1606504</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1659,13 +1659,13 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>72791</v>
+        <v>64260</v>
       </c>
       <c r="G37" s="18">
-        <v>1819763</v>
+        <v>1606504</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1676,13 +1676,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>64260</v>
@@ -1699,19 +1699,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>61789</v>
+        <v>64260</v>
       </c>
       <c r="G39" s="18">
-        <v>1544715</v>
+        <v>1606504</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1728,13 +1728,13 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>72791</v>
+        <v>64260</v>
       </c>
       <c r="G40" s="18">
-        <v>1819763</v>
+        <v>1606504</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1745,19 +1745,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>72791</v>
+        <v>64260</v>
       </c>
       <c r="G41" s="18">
-        <v>1819763</v>
+        <v>1606504</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1768,13 +1768,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>64260</v>
@@ -1791,19 +1791,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>61789</v>
+        <v>64260</v>
       </c>
       <c r="G43" s="18">
-        <v>1544715</v>
+        <v>1606504</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1814,19 +1814,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>72791</v>
+        <v>64260</v>
       </c>
       <c r="G44" s="18">
-        <v>1819763</v>
+        <v>1606504</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1837,19 +1837,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>68603</v>
+        <v>64260</v>
       </c>
       <c r="G45" s="18">
-        <v>1715070</v>
+        <v>1606504</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1860,13 +1860,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
         <v>64260</v>
@@ -1883,19 +1883,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>72791</v>
+        <v>64260</v>
       </c>
       <c r="G47" s="18">
-        <v>1819763</v>
+        <v>1606504</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1912,13 +1912,13 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>72791</v>
+        <v>64260</v>
       </c>
       <c r="G48" s="18">
-        <v>1819763</v>
+        <v>1606504</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1929,19 +1929,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>61789</v>
+        <v>64260</v>
       </c>
       <c r="G49" s="18">
-        <v>1544715</v>
+        <v>1606504</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1952,19 +1952,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>72791</v>
+        <v>64260</v>
       </c>
       <c r="G50" s="18">
-        <v>1819763</v>
+        <v>1606504</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1975,19 +1975,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>68603</v>
+        <v>64260</v>
       </c>
       <c r="G51" s="18">
-        <v>1715070</v>
+        <v>1606504</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1998,19 +1998,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>61789</v>
+        <v>64260</v>
       </c>
       <c r="G52" s="18">
-        <v>1544715</v>
+        <v>1606504</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2021,19 +2021,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>72791</v>
+        <v>64260</v>
       </c>
       <c r="G53" s="18">
-        <v>1819763</v>
+        <v>1606504</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2044,19 +2044,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>72791</v>
+        <v>64260</v>
       </c>
       <c r="G54" s="18">
-        <v>1819763</v>
+        <v>1606504</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2067,13 +2067,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
         <v>64260</v>
@@ -2096,13 +2096,13 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
-        <v>72791</v>
+        <v>64260</v>
       </c>
       <c r="G56" s="18">
-        <v>1819763</v>
+        <v>1606504</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2113,19 +2113,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>68603</v>
+        <v>64260</v>
       </c>
       <c r="G57" s="18">
-        <v>1715070</v>
+        <v>1606504</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2136,13 +2136,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F58" s="18">
         <v>61789</v>
@@ -2159,19 +2159,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F59" s="18">
-        <v>72791</v>
+        <v>61789</v>
       </c>
       <c r="G59" s="18">
-        <v>1819763</v>
+        <v>1544715</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2182,19 +2182,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F60" s="18">
-        <v>72791</v>
+        <v>61789</v>
       </c>
       <c r="G60" s="18">
-        <v>1819763</v>
+        <v>1544715</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2205,19 +2205,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F61" s="18">
-        <v>72791</v>
+        <v>61789</v>
       </c>
       <c r="G61" s="18">
-        <v>1819763</v>
+        <v>1544715</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2228,19 +2228,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F62" s="18">
-        <v>64260</v>
+        <v>61789</v>
       </c>
       <c r="G62" s="18">
-        <v>1606504</v>
+        <v>1544715</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2251,19 +2251,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F63" s="18">
-        <v>68603</v>
+        <v>61789</v>
       </c>
       <c r="G63" s="18">
-        <v>1715070</v>
+        <v>1544715</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2274,19 +2274,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F64" s="18">
-        <v>72791</v>
+        <v>61789</v>
       </c>
       <c r="G64" s="18">
-        <v>1819763</v>
+        <v>1544715</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2297,19 +2297,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F65" s="18">
-        <v>72791</v>
+        <v>61789</v>
       </c>
       <c r="G65" s="18">
-        <v>1819763</v>
+        <v>1544715</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2320,13 +2320,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F66" s="18">
         <v>61789</v>
@@ -2343,19 +2343,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F67" s="18">
-        <v>68603</v>
+        <v>61789</v>
       </c>
       <c r="G67" s="18">
-        <v>1715070</v>
+        <v>1544715</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2366,19 +2366,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F68" s="18">
-        <v>64260</v>
+        <v>61789</v>
       </c>
       <c r="G68" s="18">
-        <v>1606504</v>
+        <v>1544715</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2389,19 +2389,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F69" s="18">
-        <v>72791</v>
+        <v>61789</v>
       </c>
       <c r="G69" s="18">
-        <v>1819763</v>
+        <v>1544715</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2412,19 +2412,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F70" s="18">
-        <v>72791</v>
+        <v>61789</v>
       </c>
       <c r="G70" s="18">
-        <v>1819763</v>
+        <v>1544715</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2435,19 +2435,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F71" s="18">
-        <v>72791</v>
+        <v>61789</v>
       </c>
       <c r="G71" s="18">
-        <v>1819763</v>
+        <v>1544715</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2458,19 +2458,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F72" s="18">
-        <v>72791</v>
+        <v>61789</v>
       </c>
       <c r="G72" s="18">
-        <v>1819763</v>
+        <v>1544715</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2481,13 +2481,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F73" s="18">
         <v>61789</v>
@@ -2504,19 +2504,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F74" s="18">
-        <v>64260</v>
+        <v>61789</v>
       </c>
       <c r="G74" s="18">
-        <v>1606504</v>
+        <v>1544715</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2527,19 +2527,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F75" s="18">
-        <v>68603</v>
+        <v>61789</v>
       </c>
       <c r="G75" s="18">
-        <v>1715070</v>
+        <v>1544715</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2550,19 +2550,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F76" s="18">
-        <v>64260</v>
+        <v>61789</v>
       </c>
       <c r="G76" s="18">
-        <v>1606504</v>
+        <v>1544715</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2573,19 +2573,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F77" s="18">
-        <v>68603</v>
+        <v>61789</v>
       </c>
       <c r="G77" s="18">
-        <v>1715070</v>
+        <v>1544715</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2596,19 +2596,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E78" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F78" s="18">
-        <v>72791</v>
+        <v>61789</v>
       </c>
       <c r="G78" s="18">
-        <v>1819763</v>
+        <v>1544715</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2619,13 +2619,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F79" s="18">
         <v>61789</v>
@@ -2642,19 +2642,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F80" s="18">
-        <v>72791</v>
+        <v>61789</v>
       </c>
       <c r="G80" s="18">
-        <v>1819763</v>
+        <v>1544715</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2665,19 +2665,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F81" s="18">
-        <v>72791</v>
+        <v>61789</v>
       </c>
       <c r="G81" s="18">
-        <v>1819763</v>
+        <v>1544715</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2688,13 +2688,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F82" s="18">
         <v>61789</v>
@@ -2711,19 +2711,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F83" s="18">
-        <v>72791</v>
+        <v>61789</v>
       </c>
       <c r="G83" s="18">
-        <v>1819763</v>
+        <v>1544715</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2734,19 +2734,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F84" s="18">
-        <v>72791</v>
+        <v>61789</v>
       </c>
       <c r="G84" s="18">
-        <v>1819763</v>
+        <v>1544715</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2757,19 +2757,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F85" s="18">
-        <v>68603</v>
+        <v>61789</v>
       </c>
       <c r="G85" s="18">
-        <v>1715070</v>
+        <v>1544715</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2780,19 +2780,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F86" s="18">
-        <v>64260</v>
+        <v>61789</v>
       </c>
       <c r="G86" s="18">
-        <v>1606504</v>
+        <v>1544715</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2803,19 +2803,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F87" s="18">
-        <v>72791</v>
+        <v>61789</v>
       </c>
       <c r="G87" s="18">
-        <v>1819763</v>
+        <v>1544715</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2826,19 +2826,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F88" s="18">
-        <v>64260</v>
+        <v>61789</v>
       </c>
       <c r="G88" s="18">
-        <v>1606504</v>
+        <v>1544715</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2849,19 +2849,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F89" s="18">
-        <v>72791</v>
+        <v>61789</v>
       </c>
       <c r="G89" s="18">
-        <v>1819763</v>
+        <v>1544715</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2872,19 +2872,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F90" s="18">
-        <v>68603</v>
+        <v>61789</v>
       </c>
       <c r="G90" s="18">
-        <v>1715070</v>
+        <v>1544715</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2895,13 +2895,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F91" s="18">
         <v>61789</v>
@@ -2918,19 +2918,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F92" s="18">
-        <v>72791</v>
+        <v>61789</v>
       </c>
       <c r="G92" s="18">
-        <v>1819763</v>
+        <v>1544715</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2941,19 +2941,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F93" s="18">
-        <v>72791</v>
+        <v>61789</v>
       </c>
       <c r="G93" s="18">
-        <v>1819763</v>
+        <v>1544715</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2964,19 +2964,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F94" s="18">
-        <v>72791</v>
+        <v>61789</v>
       </c>
       <c r="G94" s="18">
-        <v>1819763</v>
+        <v>1544715</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -2987,19 +2987,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F95" s="18">
-        <v>72791</v>
+        <v>61789</v>
       </c>
       <c r="G95" s="18">
-        <v>1819763</v>
+        <v>1544715</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3010,19 +3010,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F96" s="18">
-        <v>64260</v>
+        <v>61789</v>
       </c>
       <c r="G96" s="18">
-        <v>1606504</v>
+        <v>1544715</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3033,19 +3033,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F97" s="18">
-        <v>72791</v>
+        <v>61789</v>
       </c>
       <c r="G97" s="18">
-        <v>1819763</v>
+        <v>1544715</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3056,19 +3056,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F98" s="18">
-        <v>68603</v>
+        <v>61789</v>
       </c>
       <c r="G98" s="18">
-        <v>1715070</v>
+        <v>1544715</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3079,13 +3079,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F99" s="18">
         <v>61789</v>
@@ -3102,13 +3102,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F100" s="18">
         <v>72791</v>
@@ -3125,19 +3125,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F101" s="18">
-        <v>68603</v>
+        <v>72791</v>
       </c>
       <c r="G101" s="18">
-        <v>1715070</v>
+        <v>1819763</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3148,13 +3148,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F102" s="18">
         <v>72791</v>
@@ -3171,19 +3171,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F103" s="18">
-        <v>61789</v>
+        <v>72791</v>
       </c>
       <c r="G103" s="18">
-        <v>1544715</v>
+        <v>1819763</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3194,19 +3194,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F104" s="18">
-        <v>64260</v>
+        <v>72791</v>
       </c>
       <c r="G104" s="18">
-        <v>1606504</v>
+        <v>1819763</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3217,13 +3217,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F105" s="18">
         <v>72791</v>
@@ -3240,13 +3240,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F106" s="18">
         <v>72791</v>
@@ -3263,13 +3263,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F107" s="18">
         <v>72791</v>
@@ -3286,19 +3286,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F108" s="18">
-        <v>61789</v>
+        <v>72791</v>
       </c>
       <c r="G108" s="18">
-        <v>1544715</v>
+        <v>1819763</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3309,19 +3309,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F109" s="18">
-        <v>64260</v>
+        <v>72791</v>
       </c>
       <c r="G109" s="18">
-        <v>1606504</v>
+        <v>1819763</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3332,13 +3332,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F110" s="18">
         <v>72791</v>
@@ -3355,19 +3355,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F111" s="18">
-        <v>68603</v>
+        <v>72791</v>
       </c>
       <c r="G111" s="18">
-        <v>1715070</v>
+        <v>1819763</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3378,13 +3378,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F112" s="18">
         <v>72791</v>
@@ -3401,13 +3401,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F113" s="18">
         <v>72791</v>
@@ -3424,19 +3424,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F114" s="18">
-        <v>68603</v>
+        <v>72791</v>
       </c>
       <c r="G114" s="18">
-        <v>1715070</v>
+        <v>1819763</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3447,19 +3447,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F115" s="18">
-        <v>64260</v>
+        <v>72791</v>
       </c>
       <c r="G115" s="18">
-        <v>1606504</v>
+        <v>1819763</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3470,13 +3470,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F116" s="18">
         <v>72791</v>
@@ -3493,19 +3493,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F117" s="18">
-        <v>61789</v>
+        <v>72791</v>
       </c>
       <c r="G117" s="18">
-        <v>1544715</v>
+        <v>1819763</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3516,13 +3516,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F118" s="18">
         <v>72791</v>
@@ -3539,19 +3539,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F119" s="18">
-        <v>61789</v>
+        <v>72791</v>
       </c>
       <c r="G119" s="18">
-        <v>1544715</v>
+        <v>1819763</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3562,19 +3562,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F120" s="18">
-        <v>68603</v>
+        <v>72791</v>
       </c>
       <c r="G120" s="18">
-        <v>1715070</v>
+        <v>1819763</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3585,13 +3585,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F121" s="18">
         <v>72791</v>
@@ -3608,19 +3608,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F122" s="18">
-        <v>64260</v>
+        <v>72791</v>
       </c>
       <c r="G122" s="18">
-        <v>1606504</v>
+        <v>1819763</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3631,13 +3631,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F123" s="18">
         <v>72791</v>
@@ -3654,19 +3654,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F124" s="18">
-        <v>61789</v>
+        <v>72791</v>
       </c>
       <c r="G124" s="18">
-        <v>1544715</v>
+        <v>1819763</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3677,13 +3677,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F125" s="18">
         <v>72791</v>
@@ -3700,13 +3700,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F126" s="18">
         <v>72791</v>
@@ -3723,13 +3723,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F127" s="18">
         <v>72791</v>
@@ -3746,19 +3746,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E128" s="16" t="s">
         <v>39</v>
       </c>
       <c r="F128" s="18">
-        <v>64260</v>
+        <v>72791</v>
       </c>
       <c r="G128" s="18">
-        <v>1606504</v>
+        <v>1819763</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3769,19 +3769,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F129" s="18">
-        <v>68603</v>
+        <v>72791</v>
       </c>
       <c r="G129" s="18">
-        <v>1715070</v>
+        <v>1819763</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3792,13 +3792,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F130" s="18">
         <v>72791</v>
@@ -3815,19 +3815,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F131" s="18">
-        <v>68603</v>
+        <v>72791</v>
       </c>
       <c r="G131" s="18">
-        <v>1715070</v>
+        <v>1819763</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3838,19 +3838,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F132" s="18">
-        <v>64260</v>
+        <v>72791</v>
       </c>
       <c r="G132" s="18">
-        <v>1606504</v>
+        <v>1819763</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3861,19 +3861,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F133" s="18">
-        <v>61789</v>
+        <v>72791</v>
       </c>
       <c r="G133" s="18">
-        <v>1544715</v>
+        <v>1819763</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3884,13 +3884,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F134" s="18">
         <v>72791</v>
@@ -3907,13 +3907,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F135" s="18">
         <v>72791</v>
@@ -3930,13 +3930,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F136" s="18">
         <v>72791</v>
@@ -3953,19 +3953,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F137" s="18">
-        <v>64260</v>
+        <v>72791</v>
       </c>
       <c r="G137" s="18">
-        <v>1606504</v>
+        <v>1819763</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -3976,19 +3976,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F138" s="18">
-        <v>68603</v>
+        <v>72791</v>
       </c>
       <c r="G138" s="18">
-        <v>1715070</v>
+        <v>1819763</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -3999,13 +3999,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F139" s="18">
         <v>72791</v>
@@ -4022,19 +4022,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F140" s="18">
-        <v>61789</v>
+        <v>72791</v>
       </c>
       <c r="G140" s="18">
-        <v>1544715</v>
+        <v>1819763</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4045,13 +4045,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F141" s="18">
         <v>72791</v>
@@ -4068,19 +4068,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F142" s="18">
-        <v>72791</v>
+        <v>68603</v>
       </c>
       <c r="G142" s="18">
-        <v>1819763</v>
+        <v>1715070</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4091,19 +4091,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E143" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D143" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E143" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="F143" s="18">
-        <v>61789</v>
+        <v>68603</v>
       </c>
       <c r="G143" s="18">
-        <v>1544715</v>
+        <v>1715070</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4114,19 +4114,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="F144" s="18">
-        <v>64260</v>
+        <v>68603</v>
       </c>
       <c r="G144" s="18">
-        <v>1606504</v>
+        <v>1715070</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4137,13 +4137,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F145" s="18">
         <v>68603</v>
@@ -4160,19 +4160,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="F146" s="18">
-        <v>72791</v>
+        <v>68603</v>
       </c>
       <c r="G146" s="18">
-        <v>1819763</v>
+        <v>1715070</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4183,19 +4183,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="F147" s="18">
-        <v>72791</v>
+        <v>68603</v>
       </c>
       <c r="G147" s="18">
-        <v>1819763</v>
+        <v>1715070</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4206,19 +4206,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="F148" s="18">
-        <v>72791</v>
+        <v>68603</v>
       </c>
       <c r="G148" s="18">
-        <v>1819763</v>
+        <v>1715070</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4229,19 +4229,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F149" s="18">
-        <v>61789</v>
+        <v>68603</v>
       </c>
       <c r="G149" s="18">
-        <v>1544715</v>
+        <v>1715070</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4252,19 +4252,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F150" s="18">
-        <v>72791</v>
+        <v>68603</v>
       </c>
       <c r="G150" s="18">
-        <v>1819763</v>
+        <v>1715070</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4275,19 +4275,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F151" s="18">
-        <v>64260</v>
+        <v>68603</v>
       </c>
       <c r="G151" s="18">
-        <v>1606504</v>
+        <v>1715070</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4298,19 +4298,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F152" s="18">
-        <v>72791</v>
+        <v>68603</v>
       </c>
       <c r="G152" s="18">
-        <v>1819763</v>
+        <v>1715070</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4321,13 +4321,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F153" s="18">
         <v>68603</v>
@@ -4344,13 +4344,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F154" s="18">
         <v>68603</v>
@@ -4367,19 +4367,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F155" s="18">
-        <v>61789</v>
+        <v>68603</v>
       </c>
       <c r="G155" s="18">
-        <v>1544715</v>
+        <v>1715070</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4390,19 +4390,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F156" s="18">
-        <v>72791</v>
+        <v>68603</v>
       </c>
       <c r="G156" s="18">
-        <v>1819763</v>
+        <v>1715070</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4413,19 +4413,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F157" s="18">
-        <v>64260</v>
+        <v>68603</v>
       </c>
       <c r="G157" s="18">
-        <v>1606504</v>
+        <v>1715070</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4436,19 +4436,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F158" s="18">
-        <v>72791</v>
+        <v>68603</v>
       </c>
       <c r="G158" s="18">
-        <v>1819763</v>
+        <v>1715070</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4459,19 +4459,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F159" s="18">
-        <v>72791</v>
+        <v>68603</v>
       </c>
       <c r="G159" s="18">
-        <v>1819763</v>
+        <v>1715070</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4482,19 +4482,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F160" s="18">
-        <v>72791</v>
+        <v>68603</v>
       </c>
       <c r="G160" s="18">
-        <v>1819763</v>
+        <v>1715070</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4505,19 +4505,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F161" s="18">
-        <v>61789</v>
+        <v>68603</v>
       </c>
       <c r="G161" s="18">
-        <v>1544715</v>
+        <v>1715070</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4528,13 +4528,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F162" s="18">
         <v>68603</v>
@@ -4551,19 +4551,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F163" s="18">
-        <v>72791</v>
+        <v>68603</v>
       </c>
       <c r="G163" s="18">
-        <v>1819763</v>
+        <v>1715070</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4574,19 +4574,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F164" s="18">
-        <v>72791</v>
+        <v>68603</v>
       </c>
       <c r="G164" s="18">
-        <v>1819763</v>
+        <v>1715070</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4597,19 +4597,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F165" s="18">
-        <v>64260</v>
+        <v>68603</v>
       </c>
       <c r="G165" s="18">
-        <v>1606504</v>
+        <v>1715070</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4620,19 +4620,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F166" s="18">
-        <v>64260</v>
+        <v>68603</v>
       </c>
       <c r="G166" s="18">
-        <v>1606504</v>
+        <v>1715070</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4643,19 +4643,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F167" s="18">
-        <v>72791</v>
+        <v>68603</v>
       </c>
       <c r="G167" s="18">
-        <v>1819763</v>
+        <v>1715070</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4666,19 +4666,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F168" s="18">
-        <v>61789</v>
+        <v>68603</v>
       </c>
       <c r="G168" s="18">
-        <v>1544715</v>
+        <v>1715070</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4689,19 +4689,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F169" s="18">
-        <v>72791</v>
+        <v>68603</v>
       </c>
       <c r="G169" s="18">
-        <v>1819763</v>
+        <v>1715070</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4712,19 +4712,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F170" s="18">
-        <v>72791</v>
+        <v>68603</v>
       </c>
       <c r="G170" s="18">
-        <v>1819763</v>
+        <v>1715070</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4735,13 +4735,13 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F171" s="18">
         <v>68603</v>
@@ -4758,19 +4758,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F172" s="18">
-        <v>72791</v>
+        <v>68603</v>
       </c>
       <c r="G172" s="18">
-        <v>1819763</v>
+        <v>1715070</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4781,19 +4781,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F173" s="18">
-        <v>72791</v>
+        <v>68603</v>
       </c>
       <c r="G173" s="18">
-        <v>1819763</v>
+        <v>1715070</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4804,13 +4804,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F174" s="18">
         <v>68603</v>
@@ -4827,19 +4827,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F175" s="18">
-        <v>61789</v>
+        <v>68603</v>
       </c>
       <c r="G175" s="18">
-        <v>1544715</v>
+        <v>1715070</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -4850,19 +4850,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F176" s="18">
-        <v>64260</v>
+        <v>68603</v>
       </c>
       <c r="G176" s="18">
-        <v>1606504</v>
+        <v>1715070</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -4873,19 +4873,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F177" s="18">
-        <v>72791</v>
+        <v>68603</v>
       </c>
       <c r="G177" s="18">
-        <v>1819763</v>
+        <v>1715070</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -4896,19 +4896,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F178" s="18">
-        <v>72791</v>
+        <v>68603</v>
       </c>
       <c r="G178" s="18">
-        <v>1819763</v>
+        <v>1715070</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -4919,19 +4919,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="E179" s="16" t="s">
         <v>48</v>
       </c>
       <c r="F179" s="18">
-        <v>64260</v>
+        <v>68603</v>
       </c>
       <c r="G179" s="18">
-        <v>1606504</v>
+        <v>1715070</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -4942,13 +4942,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F180" s="18">
         <v>68603</v>
@@ -4965,19 +4965,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F181" s="18">
-        <v>61789</v>
+        <v>68603</v>
       </c>
       <c r="G181" s="18">
-        <v>1544715</v>
+        <v>1715070</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -4988,19 +4988,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F182" s="18">
-        <v>72791</v>
+        <v>68603</v>
       </c>
       <c r="G182" s="18">
-        <v>1819763</v>
+        <v>1715070</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5011,19 +5011,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F183" s="18">
-        <v>72791</v>
+        <v>68603</v>
       </c>
       <c r="G183" s="18">
-        <v>1819763</v>
+        <v>1715070</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5034,19 +5034,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F184" s="18">
-        <v>61789</v>
+        <v>72791</v>
       </c>
       <c r="G184" s="18">
-        <v>1544715</v>
+        <v>1819763</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5057,19 +5057,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="F185" s="18">
-        <v>64260</v>
+        <v>72791</v>
       </c>
       <c r="G185" s="18">
-        <v>1606504</v>
+        <v>1819763</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5080,13 +5080,13 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="F186" s="18">
         <v>72791</v>
@@ -5103,19 +5103,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F187" s="18">
-        <v>68603</v>
+        <v>72791</v>
       </c>
       <c r="G187" s="18">
-        <v>1715070</v>
+        <v>1819763</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5126,13 +5126,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D188" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E188" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E188" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="F188" s="18">
         <v>72791</v>
@@ -5149,13 +5149,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F189" s="18">
         <v>72791</v>
@@ -5172,13 +5172,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F190" s="18">
         <v>72791</v>
@@ -5195,13 +5195,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F191" s="18">
         <v>72791</v>
@@ -5218,19 +5218,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F192" s="18">
-        <v>61789</v>
+        <v>72791</v>
       </c>
       <c r="G192" s="18">
-        <v>1544715</v>
+        <v>1819763</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5241,19 +5241,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D193" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E193" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D193" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E193" s="16" t="s">
-        <v>50</v>
-      </c>
       <c r="F193" s="18">
-        <v>68603</v>
+        <v>72791</v>
       </c>
       <c r="G193" s="18">
-        <v>1715070</v>
+        <v>1819763</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5264,19 +5264,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F194" s="18">
-        <v>64260</v>
+        <v>72791</v>
       </c>
       <c r="G194" s="18">
-        <v>1606504</v>
+        <v>1819763</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5287,13 +5287,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F195" s="18">
         <v>72791</v>
@@ -5310,19 +5310,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F196" s="18">
-        <v>64260</v>
+        <v>72791</v>
       </c>
       <c r="G196" s="18">
-        <v>1606504</v>
+        <v>1819763</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5333,19 +5333,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F197" s="18">
-        <v>61789</v>
+        <v>72791</v>
       </c>
       <c r="G197" s="18">
-        <v>1544715</v>
+        <v>1819763</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5356,13 +5356,13 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F198" s="18">
         <v>72791</v>
@@ -5379,13 +5379,13 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="F199" s="18">
         <v>72791</v>
@@ -5402,19 +5402,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F200" s="18">
-        <v>68603</v>
+        <v>72791</v>
       </c>
       <c r="G200" s="18">
-        <v>1715070</v>
+        <v>1819763</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5425,13 +5425,13 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F201" s="18">
         <v>72791</v>
@@ -5448,13 +5448,13 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="F202" s="18">
         <v>72791</v>
@@ -5471,19 +5471,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F203" s="18">
-        <v>68603</v>
+        <v>72791</v>
       </c>
       <c r="G203" s="18">
-        <v>1715070</v>
+        <v>1819763</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5494,13 +5494,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F204" s="18">
         <v>72791</v>
@@ -5517,19 +5517,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F205" s="18">
-        <v>61789</v>
+        <v>72791</v>
       </c>
       <c r="G205" s="18">
-        <v>1544715</v>
+        <v>1819763</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5540,13 +5540,13 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F206" s="18">
         <v>72791</v>
@@ -5563,19 +5563,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F207" s="18">
-        <v>64260</v>
+        <v>72791</v>
       </c>
       <c r="G207" s="18">
-        <v>1606504</v>
+        <v>1819763</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5586,13 +5586,13 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F208" s="18">
         <v>72791</v>
@@ -5609,19 +5609,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F209" s="18">
-        <v>61789</v>
+        <v>72791</v>
       </c>
       <c r="G209" s="18">
-        <v>1544715</v>
+        <v>1819763</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5632,13 +5632,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F210" s="18">
         <v>72791</v>
@@ -5655,19 +5655,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F211" s="18">
-        <v>68603</v>
+        <v>72791</v>
       </c>
       <c r="G211" s="18">
-        <v>1715070</v>
+        <v>1819763</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5678,13 +5678,13 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F212" s="18">
         <v>72791</v>
@@ -5701,19 +5701,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F213" s="18">
-        <v>64260</v>
+        <v>72791</v>
       </c>
       <c r="G213" s="18">
-        <v>1606504</v>
+        <v>1819763</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5724,19 +5724,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F214" s="18">
-        <v>68603</v>
+        <v>72791</v>
       </c>
       <c r="G214" s="18">
-        <v>1715070</v>
+        <v>1819763</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5747,13 +5747,13 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F215" s="18">
         <v>72791</v>
@@ -5770,13 +5770,13 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F216" s="18">
         <v>72791</v>
@@ -5793,19 +5793,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F217" s="18">
-        <v>61789</v>
+        <v>72791</v>
       </c>
       <c r="G217" s="18">
-        <v>1544715</v>
+        <v>1819763</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -5816,13 +5816,13 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F218" s="18">
         <v>72791</v>
@@ -5839,19 +5839,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F219" s="18">
-        <v>64260</v>
+        <v>72791</v>
       </c>
       <c r="G219" s="18">
-        <v>1606504</v>
+        <v>1819763</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -5862,19 +5862,19 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F220" s="18">
-        <v>64260</v>
+        <v>72791</v>
       </c>
       <c r="G220" s="18">
-        <v>1606504</v>
+        <v>1819763</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -5885,13 +5885,13 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F221" s="18">
         <v>72791</v>
@@ -5908,19 +5908,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F222" s="18">
-        <v>61789</v>
+        <v>72791</v>
       </c>
       <c r="G222" s="18">
-        <v>1544715</v>
+        <v>1819763</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -5931,13 +5931,13 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F223" s="18">
         <v>72791</v>
@@ -5954,13 +5954,13 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F224" s="18">
         <v>72791</v>
@@ -5977,19 +5977,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F225" s="18">
-        <v>68603</v>
+        <v>72791</v>
       </c>
       <c r="G225" s="18">
-        <v>1715070</v>
+        <v>1819763</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6000,19 +6000,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F226" s="18">
-        <v>61789</v>
+        <v>72791</v>
       </c>
       <c r="G226" s="18">
-        <v>1544715</v>
+        <v>1819763</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6023,13 +6023,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="F227" s="18">
         <v>72791</v>
@@ -6046,19 +6046,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="F228" s="18">
-        <v>64260</v>
+        <v>72791</v>
       </c>
       <c r="G228" s="18">
-        <v>1606504</v>
+        <v>1819763</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6069,13 +6069,13 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D229" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E229" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="D229" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E229" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="F229" s="18">
         <v>72791</v>
@@ -6092,13 +6092,13 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="F230" s="18">
         <v>72791</v>
@@ -6115,19 +6115,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F231" s="18">
-        <v>68603</v>
+        <v>72791</v>
       </c>
       <c r="G231" s="18">
-        <v>1715070</v>
+        <v>1819763</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6138,13 +6138,13 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="F232" s="18">
         <v>72791</v>
@@ -6161,13 +6161,13 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D233" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E233" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D233" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E233" s="16" t="s">
-        <v>57</v>
       </c>
       <c r="F233" s="18">
         <v>72791</v>
@@ -6184,19 +6184,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="F234" s="18">
-        <v>64260</v>
+        <v>72791</v>
       </c>
       <c r="G234" s="18">
-        <v>1606504</v>
+        <v>1819763</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6207,19 +6207,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="F235" s="18">
-        <v>61789</v>
+        <v>72791</v>
       </c>
       <c r="G235" s="18">
-        <v>1544715</v>
+        <v>1819763</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6230,19 +6230,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D236" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E236" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E236" s="16" t="s">
-        <v>57</v>
-      </c>
       <c r="F236" s="18">
-        <v>68603</v>
+        <v>72791</v>
       </c>
       <c r="G236" s="18">
-        <v>1715070</v>
+        <v>1819763</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6253,13 +6253,13 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="F237" s="18">
         <v>72791</v>
@@ -6276,13 +6276,13 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="F238" s="18">
         <v>72791</v>
@@ -6299,13 +6299,13 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="F239" s="18">
         <v>72791</v>
@@ -6322,19 +6322,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="F240" s="18">
-        <v>68603</v>
+        <v>72791</v>
       </c>
       <c r="G240" s="18">
-        <v>1715070</v>
+        <v>1819763</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6345,19 +6345,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="F241" s="18">
-        <v>64260</v>
+        <v>72791</v>
       </c>
       <c r="G241" s="18">
-        <v>1606504</v>
+        <v>1819763</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6368,19 +6368,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F242" s="18">
-        <v>61789</v>
+        <v>72791</v>
       </c>
       <c r="G242" s="18">
-        <v>1544715</v>
+        <v>1819763</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6391,13 +6391,13 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="F243" s="18">
         <v>72791</v>
@@ -6414,19 +6414,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="F244" s="18">
-        <v>64260</v>
+        <v>72791</v>
       </c>
       <c r="G244" s="18">
-        <v>1606504</v>
+        <v>1819763</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6437,19 +6437,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="F245" s="18">
-        <v>61789</v>
+        <v>72791</v>
       </c>
       <c r="G245" s="18">
-        <v>1544715</v>
+        <v>1819763</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6460,13 +6460,13 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F246" s="18">
         <v>72791</v>
@@ -6483,19 +6483,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F247" s="18">
-        <v>68603</v>
+        <v>72791</v>
       </c>
       <c r="G247" s="18">
-        <v>1715070</v>
+        <v>1819763</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6506,13 +6506,13 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F248" s="18">
         <v>72791</v>
@@ -6529,13 +6529,13 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F249" s="18">
         <v>72791</v>
@@ -6552,19 +6552,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F250" s="18">
-        <v>64260</v>
+        <v>72791</v>
       </c>
       <c r="G250" s="18">
-        <v>1606504</v>
+        <v>1819763</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6575,19 +6575,19 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F251" s="18">
-        <v>61789</v>
+        <v>72791</v>
       </c>
       <c r="G251" s="18">
-        <v>1544715</v>
+        <v>1819763</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -6598,19 +6598,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F252" s="18">
-        <v>68603</v>
+        <v>72791</v>
       </c>
       <c r="G252" s="18">
-        <v>1715070</v>
+        <v>1819763</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -6621,13 +6621,13 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F253" s="18">
         <v>72791</v>
@@ -6644,13 +6644,13 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F254" s="18">
         <v>72791</v>
@@ -6667,13 +6667,13 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F255" s="18">
         <v>72791</v>
@@ -6690,13 +6690,13 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F256" s="18">
         <v>72791</v>
@@ -6713,19 +6713,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F257" s="18">
-        <v>64260</v>
+        <v>72791</v>
       </c>
       <c r="G257" s="18">
-        <v>1606504</v>
+        <v>1819763</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -6736,13 +6736,13 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F258" s="18">
         <v>72791</v>
@@ -6759,19 +6759,19 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F259" s="18">
-        <v>68603</v>
+        <v>72791</v>
       </c>
       <c r="G259" s="18">
-        <v>1715070</v>
+        <v>1819763</v>
       </c>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
@@ -6782,19 +6782,19 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F260" s="18">
-        <v>61789</v>
+        <v>72791</v>
       </c>
       <c r="G260" s="18">
-        <v>1544715</v>
+        <v>1819763</v>
       </c>
       <c r="H260" s="19"/>
       <c r="I260" s="19"/>
@@ -6805,13 +6805,13 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F261" s="18">
         <v>72791</v>
@@ -6828,13 +6828,13 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F262" s="18">
         <v>72791</v>
@@ -6851,19 +6851,19 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F263" s="18">
-        <v>64260</v>
+        <v>72791</v>
       </c>
       <c r="G263" s="18">
-        <v>1606504</v>
+        <v>1819763</v>
       </c>
       <c r="H263" s="19"/>
       <c r="I263" s="19"/>
@@ -6874,13 +6874,13 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F264" s="18">
         <v>72791</v>
@@ -6897,13 +6897,13 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F265" s="18">
         <v>72791</v>
@@ -6920,19 +6920,19 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F266" s="18">
-        <v>68603</v>
+        <v>72791</v>
       </c>
       <c r="G266" s="18">
-        <v>1715070</v>
+        <v>1819763</v>
       </c>
       <c r="H266" s="19"/>
       <c r="I266" s="19"/>
@@ -6943,19 +6943,19 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F267" s="18">
-        <v>61789</v>
+        <v>72791</v>
       </c>
       <c r="G267" s="18">
-        <v>1544715</v>
+        <v>1819763</v>
       </c>
       <c r="H267" s="19"/>
       <c r="I267" s="19"/>
